--- a/client/doc/数据库表.xlsx
+++ b/client/doc/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="账号表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
   <si>
     <t>表名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,7 +361,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战报表，关联到玩家表，PVE时有没有敌人，PVP时有敌人</t>
+    <t>战报表，关联到玩家表，PVE时有没有敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号，该玩家数据属于哪个区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,8 +429,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -445,7 +499,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="65">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -455,6 +509,29 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -464,6 +541,29 @@
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -795,14 +895,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -897,15 +999,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
@@ -949,97 +1053,105 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1060,13 +1172,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D10" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1164,13 +1278,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1230,6 +1346,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1243,12 +1360,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1306,6 +1425,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/client/doc/数据库表.xlsx
+++ b/client/doc/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="3900" windowWidth="21820" windowHeight="12920" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="账号表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>表名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,46 +109,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass_mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_lv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_addition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_addition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle_log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>own</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,26 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>passive_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>players_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受击人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,11 +301,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>area_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区号，该玩家数据属于哪个区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playersId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpAddition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkAddition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passMark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastLoginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastLoginDevice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,8 +425,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -499,7 +501,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="71">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -532,6 +534,9 @@
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -564,6 +569,9 @@
     <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -896,7 +904,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -915,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -926,23 +934,23 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -950,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -963,7 +971,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -971,7 +979,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -979,10 +987,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1001,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1021,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1032,31 +1040,31 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1064,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1072,7 +1080,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1080,7 +1088,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1088,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1096,31 +1104,31 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1128,15 +1136,15 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -1144,15 +1152,15 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1171,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1191,7 +1199,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1202,63 +1210,63 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1286,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1294,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1305,42 +1313,42 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1368,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1376,50 +1384,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/client/doc/数据库表.xlsx
+++ b/client/doc/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3900" windowWidth="21820" windowHeight="12920" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="660" yWindow="3900" windowWidth="21820" windowHeight="12920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="账号表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>表名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>formation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,6 +362,18 @@
   </si>
   <si>
     <t>lastLoginDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,8 +433,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -501,7 +525,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="87">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -537,6 +561,14 @@
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -572,6 +604,14 @@
     <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -903,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -923,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -934,15 +974,15 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -971,7 +1011,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -979,7 +1019,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -987,7 +1027,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -1010,7 +1050,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1029,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1040,31 +1080,31 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1072,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1080,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1088,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1096,7 +1136,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1104,31 +1144,31 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1136,15 +1176,15 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -1152,15 +1192,15 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1177,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1199,7 +1239,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1210,31 +1250,31 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1242,31 +1282,39 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1302,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1316,15 +1364,15 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1332,7 +1380,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1340,15 +1388,15 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1368,7 +1416,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1384,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1395,31 +1443,31 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1427,7 +1475,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/client/doc/数据库表.xlsx
+++ b/client/doc/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3900" windowWidth="21820" windowHeight="12920" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="3900" windowWidth="21820" windowHeight="12920" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="账号表" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>players</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>playersId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillLv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,6 +366,14 @@
   </si>
   <si>
     <t>lineUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -974,23 +974,23 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1011,7 +1011,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1080,31 +1080,31 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1112,95 +1112,95 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1236,85 +1236,85 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1350,53 +1350,53 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1432,50 +1432,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/client/doc/数据库表.xlsx
+++ b/client/doc/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3900" windowWidth="21820" windowHeight="12920" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="20" yWindow="1800" windowWidth="21820" windowHeight="12920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="账号表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>表名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务触发战斗标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精英关卡进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,10 +330,6 @@
   </si>
   <si>
     <t>areaId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskMark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -963,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -979,7 +971,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -1011,7 +1003,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1019,7 +1011,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1027,7 +1019,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -1047,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1066,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1085,7 +1077,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -1093,7 +1085,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1101,10 +1093,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1157,7 +1149,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -1181,7 +1173,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
@@ -1189,18 +1181,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1250,12 +1234,12 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -1263,18 +1247,18 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1282,39 +1266,39 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1350,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1369,10 +1353,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1380,7 +1364,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1388,15 +1372,15 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1432,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1443,31 +1427,31 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1475,7 +1459,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
